--- a/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Edad-trans_orig.xlsx
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4133</v>
+        <v>3788</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002525499356010521</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0139317069813441</v>
+        <v>0.01276987028988321</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3897</v>
+        <v>3786</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001364196732579911</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007096012371806512</v>
+        <v>0.006893939867981865</v>
       </c>
     </row>
     <row r="11">
@@ -1155,7 +1155,7 @@
         <v>295886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292502</v>
+        <v>292847</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>296635</v>
@@ -1164,7 +1164,7 @@
         <v>0.9974745006439892</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9860682930186555</v>
+        <v>0.9872301297101166</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1176,7 +1176,7 @@
         <v>548404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>545256</v>
+        <v>545367</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>549153</v>
@@ -1185,7 +1185,7 @@
         <v>0.99863580326742</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9929039876281943</v>
+        <v>0.9931060601320181</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3737</v>
+        <v>3810</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.002354672592619288</v>
+        <v>0.002354672592619289</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01178607373573645</v>
+        <v>0.01201496554066359</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3766</v>
+        <v>3780</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001125186829462834</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005676053441083692</v>
+        <v>0.005696306356680286</v>
       </c>
     </row>
     <row r="14">
@@ -1343,7 +1343,7 @@
         <v>316321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313331</v>
+        <v>313258</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>317068</v>
@@ -1352,7 +1352,7 @@
         <v>0.9976453274073807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9882139262642637</v>
+        <v>0.9879850344593364</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>662779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>659760</v>
+        <v>659746</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>663526</v>
@@ -1386,7 +1386,7 @@
         <v>0.9988748131705373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9943239465589163</v>
+        <v>0.9943036936433196</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2821</v>
+        <v>3920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002763044064043484</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01110010108854132</v>
+        <v>0.01542209625533041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3368</v>
+        <v>4204</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001372598132920229</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006582680303331961</v>
+        <v>0.008216261518388411</v>
       </c>
     </row>
     <row r="17">
@@ -1557,7 +1557,7 @@
         <v>253474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251355</v>
+        <v>250256</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>254176</v>
@@ -1566,7 +1566,7 @@
         <v>0.9972369559359566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9888998989114587</v>
+        <v>0.9845779037446692</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>510955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>508289</v>
+        <v>507453</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>511657</v>
@@ -1587,7 +1587,7 @@
         <v>0.9986274018670799</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9934173196966679</v>
+        <v>0.9917837384816116</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2891</v>
+        <v>2831</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003006048884293672</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01547918298762416</v>
+        <v>0.01515677891666724</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2485</v>
+        <v>2818</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001774792633713977</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007855239533752726</v>
+        <v>0.008909734515233138</v>
       </c>
     </row>
     <row r="23">
@@ -1927,7 +1927,7 @@
         <v>186194</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>183864</v>
+        <v>183924</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>186755</v>
@@ -1936,7 +1936,7 @@
         <v>0.9969939511157062</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9845208170123758</v>
+        <v>0.9848432210833328</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>315755</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>313831</v>
+        <v>313498</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>316316</v>
@@ -1957,7 +1957,7 @@
         <v>0.9982252073662859</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9921447604662471</v>
+        <v>0.9910902654847666</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0004760587750344625</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2073,19 +2073,19 @@
         <v>2013</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001186165451155017</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2097,16 +2097,16 @@
         <v>743</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0008451025912070222</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="26">
@@ -2123,7 +2123,7 @@
         <v>1567527</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1564544</v>
+        <v>1564495</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>1568274</v>
@@ -2132,7 +2132,7 @@
         <v>0.9995239412249656</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9976213232544749</v>
+        <v>0.997590127245104</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2144,19 +2144,19 @@
         <v>1694923</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1691386</v>
+        <v>1691526</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1696379</v>
+        <v>1696374</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9988138345488449</v>
+        <v>0.9988138345488451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9967292239251017</v>
+        <v>0.9968119769439031</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9996719613770162</v>
+        <v>0.9996690188545363</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3832</v>
@@ -2165,7 +2165,7 @@
         <v>3262451</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3258305</v>
+        <v>3258759</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>3264467</v>
@@ -2174,10 +2174,10 @@
         <v>0.9991548974087929</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9978851343208828</v>
+        <v>0.9980243368092431</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9997725824109049</v>
+        <v>0.9997725529568107</v>
       </c>
     </row>
     <row r="27">
